--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T20:45:59+00:00</t>
+    <t>2022-11-16T15:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:08:29+00:00</t>
+    <t>2022-11-16T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:32:30+00:00</t>
+    <t>2022-11-16T21:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:06+00:00</t>
+    <t>2022-11-17T18:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:46:46+00:00</t>
+    <t>2022-11-17T18:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -300,6 +297,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Questionnaire.meta.id</t>
   </si>
   <si>
@@ -381,10 +382,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>Questionnaire.meta.lastUpdated</t>
@@ -1843,21 +1840,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2191,7 +2173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>25</v>
       </c>
@@ -2303,7 +2285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -2417,7 +2399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -2511,7 +2493,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2529,9 +2511,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2557,10 +2539,10 @@
         <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2611,7 +2593,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -2629,7 +2611,7 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -2641,13 +2623,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2666,16 +2648,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2713,19 +2695,19 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -2737,13 +2719,13 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>75</v>
@@ -2757,10 +2739,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
@@ -2773,7 +2755,7 @@
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2782,13 +2764,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2839,7 +2821,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -2851,13 +2833,13 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -2866,12 +2848,12 @@
         <v>75</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2897,13 +2879,13 @@
         <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2953,7 +2935,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2965,7 +2947,7 @@
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -2999,7 +2981,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -3079,7 +3061,7 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -3097,7 +3079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>126</v>
       </c>
@@ -3193,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -3211,7 +3193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>132</v>
       </c>
@@ -3307,7 +3289,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -3325,7 +3307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>138</v>
       </c>
@@ -3419,7 +3401,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -3437,7 +3419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>146</v>
       </c>
@@ -3531,7 +3513,7 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -3549,7 +3531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>153</v>
       </c>
@@ -3645,7 +3627,7 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -3663,7 +3645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>158</v>
       </c>
@@ -3759,7 +3741,7 @@
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>75</v>
@@ -3777,7 +3759,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>167</v>
       </c>
@@ -3873,7 +3855,7 @@
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>75</v>
@@ -3891,7 +3873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>175</v>
       </c>
@@ -3993,7 +3975,7 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -4005,7 +3987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
@@ -4030,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>183</v>
@@ -4075,14 +4057,14 @@
         <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>185</v>
@@ -4097,7 +4079,7 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>75</v>
@@ -4115,7 +4097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>182</v>
       </c>
@@ -4211,7 +4193,7 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
@@ -4229,7 +4211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>182</v>
       </c>
@@ -4325,7 +4307,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>194</v>
@@ -4343,7 +4325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>182</v>
       </c>
@@ -4441,7 +4423,7 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>202</v>
@@ -4459,13 +4441,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4484,7 +4466,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>205</v>
@@ -4493,7 +4475,7 @@
         <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>207</v>
@@ -4557,13 +4539,13 @@
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4575,7 +4557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>209</v>
       </c>
@@ -4691,7 +4673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>218</v>
       </c>
@@ -4789,7 +4771,7 @@
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>224</v>
@@ -4807,7 +4789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>227</v>
       </c>
@@ -4903,7 +4885,7 @@
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>232</v>
@@ -4921,7 +4903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>235</v>
       </c>
@@ -5015,7 +4997,7 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
@@ -5033,7 +5015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>241</v>
       </c>
@@ -5131,13 +5113,13 @@
         <v>246</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>247</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -5149,7 +5131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>248</v>
       </c>
@@ -5245,7 +5227,7 @@
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>252</v>
@@ -5263,7 +5245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>254</v>
       </c>
@@ -5359,7 +5341,7 @@
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>259</v>
@@ -5377,7 +5359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>261</v>
       </c>
@@ -5473,7 +5455,7 @@
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>268</v>
@@ -5491,7 +5473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>271</v>
       </c>
@@ -5591,13 +5573,13 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>278</v>
@@ -5609,7 +5591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>279</v>
       </c>
@@ -5705,7 +5687,7 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>285</v>
@@ -5723,7 +5705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>287</v>
       </c>
@@ -5819,7 +5801,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>293</v>
@@ -5837,7 +5819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>296</v>
       </c>
@@ -5935,7 +5917,7 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>301</v>
@@ -5953,7 +5935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>304</v>
       </c>
@@ -6049,7 +6031,7 @@
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>309</v>
@@ -6067,7 +6049,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>311</v>
       </c>
@@ -6163,7 +6145,7 @@
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>316</v>
@@ -6181,7 +6163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>318</v>
       </c>
@@ -6279,7 +6261,7 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>324</v>
@@ -6297,7 +6279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>325</v>
       </c>
@@ -6393,7 +6375,7 @@
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>332</v>
@@ -6411,7 +6393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>333</v>
       </c>
@@ -6507,7 +6489,7 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>337</v>
@@ -6525,7 +6507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>340</v>
       </c>
@@ -6623,7 +6605,7 @@
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>346</v>
@@ -6641,7 +6623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>347</v>
       </c>
@@ -6739,7 +6721,7 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
@@ -6757,7 +6739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>352</v>
       </c>
@@ -6853,7 +6835,7 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>357</v>
@@ -6871,7 +6853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>359</v>
       </c>
@@ -6969,7 +6951,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>364</v>
@@ -6987,7 +6969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>366</v>
       </c>
@@ -7085,7 +7067,7 @@
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>372</v>
@@ -7103,7 +7085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>373</v>
       </c>
@@ -7199,7 +7181,7 @@
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
@@ -7217,7 +7199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>380</v>
       </c>
@@ -7331,7 +7313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>388</v>
       </c>
@@ -7359,10 +7341,10 @@
         <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7413,7 +7395,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -7431,7 +7413,7 @@
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -7443,13 +7425,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>389</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7468,16 +7450,16 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7527,7 +7509,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -7539,13 +7521,13 @@
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7557,7 +7539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>390</v>
       </c>
@@ -7582,7 +7564,7 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>392</v>
@@ -7591,7 +7573,7 @@
         <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>207</v>
@@ -7655,13 +7637,13 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7673,7 +7655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>395</v>
       </c>
@@ -7789,7 +7771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>403</v>
       </c>
@@ -7887,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
@@ -7905,7 +7887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>409</v>
       </c>
@@ -8003,7 +7985,7 @@
         <v>385</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -8021,7 +8003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>414</v>
       </c>
@@ -8119,7 +8101,7 @@
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
@@ -8137,7 +8119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>421</v>
       </c>
@@ -8233,7 +8215,7 @@
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>75</v>
@@ -8251,7 +8233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>425</v>
       </c>
@@ -8349,7 +8331,7 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
@@ -8367,7 +8349,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>433</v>
       </c>
@@ -8483,7 +8465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>439</v>
       </c>
@@ -8511,10 +8493,10 @@
         <v>228</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8565,7 +8547,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -8583,7 +8565,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8595,13 +8577,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8620,16 +8602,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8679,7 +8661,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -8691,13 +8673,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -8709,7 +8691,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>441</v>
       </c>
@@ -8734,7 +8716,7 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>392</v>
@@ -8743,7 +8725,7 @@
         <v>393</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>207</v>
@@ -8807,13 +8789,13 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8825,7 +8807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>442</v>
       </c>
@@ -8921,7 +8903,7 @@
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>75</v>
@@ -8939,7 +8921,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>446</v>
       </c>
@@ -9033,7 +9015,7 @@
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -9051,7 +9033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>451</v>
       </c>
@@ -9145,7 +9127,7 @@
         <v>457</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
@@ -9163,7 +9145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>458</v>
       </c>
@@ -9259,7 +9241,7 @@
         <v>463</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>75</v>
@@ -9277,7 +9259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>464</v>
       </c>
@@ -9373,7 +9355,7 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
@@ -9391,7 +9373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>470</v>
       </c>
@@ -9489,7 +9471,7 @@
         <v>475</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -9507,7 +9489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>476</v>
       </c>
@@ -9607,7 +9589,7 @@
         <v>475</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
@@ -9625,7 +9607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>482</v>
       </c>
@@ -9723,7 +9705,7 @@
         <v>487</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>75</v>
@@ -9741,7 +9723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>488</v>
       </c>
@@ -9837,7 +9819,7 @@
         <v>493</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
@@ -9852,10 +9834,10 @@
         <v>75</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>494</v>
       </c>
@@ -9953,7 +9935,7 @@
         <v>501</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>75</v>
@@ -9971,7 +9953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>502</v>
       </c>
@@ -10067,7 +10049,7 @@
         <v>507</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
@@ -10085,7 +10067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>508</v>
       </c>
@@ -10181,7 +10163,7 @@
         <v>507</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -10199,7 +10181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>512</v>
       </c>
@@ -10227,10 +10209,10 @@
         <v>228</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10281,7 +10263,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -10299,7 +10281,7 @@
         <v>75</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
@@ -10311,13 +10293,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>513</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10336,16 +10318,16 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10395,7 +10377,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -10407,13 +10389,13 @@
         <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -10425,7 +10407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>514</v>
       </c>
@@ -10450,7 +10432,7 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>392</v>
@@ -10459,7 +10441,7 @@
         <v>393</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>207</v>
@@ -10523,13 +10505,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -10541,7 +10523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>515</v>
       </c>
@@ -10637,7 +10619,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -10655,7 +10637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>520</v>
       </c>
@@ -10751,7 +10733,7 @@
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
@@ -10769,7 +10751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>524</v>
       </c>
@@ -10867,7 +10849,7 @@
         <v>529</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -10885,7 +10867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>530</v>
       </c>
@@ -10913,10 +10895,10 @@
         <v>228</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10967,7 +10949,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -10985,7 +10967,7 @@
         <v>75</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>75</v>
@@ -10997,13 +10979,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>531</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11022,16 +11004,16 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11081,7 +11063,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -11093,13 +11075,13 @@
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>75</v>
@@ -11111,7 +11093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>532</v>
       </c>
@@ -11136,7 +11118,7 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>392</v>
@@ -11145,7 +11127,7 @@
         <v>393</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>207</v>
@@ -11209,13 +11191,13 @@
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>75</v>
@@ -11227,7 +11209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>533</v>
       </c>
@@ -11323,7 +11305,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -11341,7 +11323,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>538</v>
       </c>
@@ -11439,7 +11421,7 @@
         <v>543</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>75</v>
@@ -11458,24 +11440,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN82">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:50:22+00:00</t>
+    <t>2022-11-17T19:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T19:05:57+00:00</t>
+    <t>2022-11-18T18:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T18:58:55+00:00</t>
+    <t>2022-11-21T14:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:15+00:00</t>
+    <t>2022-11-21T14:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:54+00:00</t>
+    <t>2022-11-21T15:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:06:17+00:00</t>
+    <t>2022-11-21T15:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:57:34+00:00</t>
+    <t>2022-11-21T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:58:19+00:00</t>
+    <t>2022-11-21T15:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:59:26+00:00</t>
+    <t>2022-11-21T16:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:10:12+00:00</t>
+    <t>2022-11-21T16:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:11:07+00:00</t>
+    <t>2022-11-22T17:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T17:30:40+00:00</t>
+    <t>2022-11-22T21:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -592,7 +592,7 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Study</t>
+    <t>study</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/study}

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-questionnaire.xlsx
+++ b/branches/master/StructureDefinition-soa-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
